--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="2080" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="23200" yWindow="9780" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
     <sheet name="service" sheetId="2" r:id="rId2"/>
     <sheet name="grants" sheetId="3" r:id="rId3"/>
     <sheet name="awards" sheetId="4" r:id="rId4"/>
+    <sheet name="teaching" sheetId="5" r:id="rId5"/>
+    <sheet name="education" sheetId="6" r:id="rId6"/>
+    <sheet name="phd" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
   <si>
     <t>IDC</t>
   </si>
@@ -280,6 +283,246 @@
   </si>
   <si>
     <t>venueFull</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>HCC Big Data</t>
+  </si>
+  <si>
+    <t>Rapid Prototyping</t>
+  </si>
+  <si>
+    <t>instructor</t>
+  </si>
+  <si>
+    <t>committee member</t>
+  </si>
+  <si>
+    <t>senior thesis</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Homa Hosseinmardi</t>
+  </si>
+  <si>
+    <t>Mahnaz Roshanaei</t>
+  </si>
+  <si>
+    <t>Study and Analysis of Emotions in Online Social Networks and Smartphones</t>
+  </si>
+  <si>
+    <t>Characterization of User Behavior in Social Networks to Better Understand Cyberbullying</t>
+  </si>
+  <si>
+    <t>Cognitive Demand of Engineering Information</t>
+  </si>
+  <si>
+    <t>PhD thesis proposal</t>
+  </si>
+  <si>
+    <t>John Brendan Sweany</t>
+  </si>
+  <si>
+    <t>MS thesis defense</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>Michael Aaron</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Emily Bertelson</t>
+  </si>
+  <si>
+    <t>Ross Michael Holland</t>
+  </si>
+  <si>
+    <t>Applications of Graph Technology to Digital Content Recommendation</t>
+  </si>
+  <si>
+    <t>Devon Tivona</t>
+  </si>
+  <si>
+    <t>Redhwan Nour</t>
+  </si>
+  <si>
+    <t>PhD prelim</t>
+  </si>
+  <si>
+    <t>User-Centered Design and Development II</t>
+  </si>
+  <si>
+    <t>Erik Komendera</t>
+  </si>
+  <si>
+    <t>PhD thesis defense</t>
+  </si>
+  <si>
+    <t>Precise Assembly of Truss Structures by Distributed Robots</t>
+  </si>
+  <si>
+    <t>Kelvin Andrew Kosbab</t>
+  </si>
+  <si>
+    <t>Crowd Dynamics of Athletic Events</t>
+  </si>
+  <si>
+    <t>Jeff Hoehl</t>
+  </si>
+  <si>
+    <t>Simplifying the Web Experience for People with Cognitive Disabilities</t>
+  </si>
+  <si>
+    <t>Web accessibility for Cognition</t>
+  </si>
+  <si>
+    <t>Thomas Michael Erickson</t>
+  </si>
+  <si>
+    <t>independent study</t>
+  </si>
+  <si>
+    <t>Integrating Arduino with 3D-printed Tactile Picture Books</t>
+  </si>
+  <si>
+    <t>MS thesis</t>
+  </si>
+  <si>
+    <t>Esther Vasiete Allas</t>
+  </si>
+  <si>
+    <t>Multimodal frustration detection on smartphones</t>
+  </si>
+  <si>
+    <t>Dara Cunningham</t>
+  </si>
+  <si>
+    <t>Building inhabitant feedback: Creating a reflective practice for environmental design using activity theory</t>
+  </si>
+  <si>
+    <t>Health Craft: Towards Helping Children Craft Personal Health Technologies</t>
+  </si>
+  <si>
+    <t>Swamy Ananthanarayan</t>
+  </si>
+  <si>
+    <t>Kyu Han Koh</t>
+  </si>
+  <si>
+    <t>Computational Thinking Pattern Analysis: A Phenomenological Approach To Compute Computational Thinking</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PostDoc</t>
+  </si>
+  <si>
+    <t>PhD Computer Science</t>
+  </si>
+  <si>
+    <t>MS Computer Science</t>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>University of Maryland College Park</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>BSc Computer Science</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Burnaby</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>The Student Affairs Faculty of the Year Award recognizes a superb faculty member that demonstrates outstanding engagement with students and contributions to the university community based on areas such as promoting diversity or fostering intellectual growth.</t>
+  </si>
+  <si>
+    <t>Khalid Alharbi</t>
+  </si>
+  <si>
+    <t>Abigale Stangl</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>Jackie Cameron</t>
+  </si>
+  <si>
+    <t>Jeeeun Kim</t>
+  </si>
+  <si>
+    <t>Mike Skirpan</t>
+  </si>
+  <si>
+    <t>Layne Hubbard</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>course work</t>
+  </si>
+  <si>
+    <t>proposal</t>
+  </si>
+  <si>
+    <t>incoming</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Graduate Committee</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Faculty Search Committee</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>ATLAS Mini-Grant</t>
+  </si>
+  <si>
+    <t>Data Science for Social Good: Hackathons and Public Exhibits to Engage Students and Increase Campus Awareness</t>
   </si>
 </sst>
 </file>
@@ -328,7 +571,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,11 +615,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -398,6 +726,47 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -419,6 +788,47 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -785,33 +1195,33 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -825,16 +1235,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -842,16 +1249,16 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -859,16 +1266,19 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -876,16 +1286,16 @@
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -893,16 +1303,16 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -910,16 +1320,16 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -927,16 +1337,16 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -944,13 +1354,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -961,19 +1371,16 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -981,58 +1388,61 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F15">
-    <sortCondition ref="A1"/>
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1046,15 +1456,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1062,10 +1472,13 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -1076,30 +1489,81 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1110,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1287,39 +1751,39 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="E9">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>2012</v>
       </c>
       <c r="F10">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1327,18 +1791,38 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>2012</v>
       </c>
       <c r="F11">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <v>2012</v>
+      </c>
+      <c r="F12">
         <v>2014</v>
       </c>
     </row>
@@ -1357,7 +1841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1388,9 +1874,611 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E18">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>2005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1997</v>
+      </c>
+      <c r="B5">
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23200" yWindow="9780" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="14420" yWindow="4860" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="teaching" sheetId="5" r:id="rId5"/>
     <sheet name="education" sheetId="6" r:id="rId6"/>
     <sheet name="phd" sheetId="7" r:id="rId7"/>
+    <sheet name="press" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="292">
   <si>
     <t>IDC</t>
   </si>
@@ -523,13 +524,443 @@
   </si>
   <si>
     <t>Data Science for Social Good: Hackathons and Public Exhibits to Engage Students and Increase Campus Awareness</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Picture books for the visually-impaired get a 3D boost</t>
+  </si>
+  <si>
+    <t>DNA India</t>
+  </si>
+  <si>
+    <t>http://www.dnaindia.com/lifestyle/books-and-more-picture-books-for-the-visually-impaired-get-a-3d-boost-2022092</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>http://www.newscientist.com/article/mg22329844.500-3dprinted-books-make-pictures-real-for-blind-children.html#.VCJE7itdUdL</t>
+  </si>
+  <si>
+    <t>3D-printed books make pictures real for blind children</t>
+  </si>
+  <si>
+    <t>New Scientist (Issue 2984)</t>
+  </si>
+  <si>
+    <t>A book and a good lie down</t>
+  </si>
+  <si>
+    <t>A Few Stories for Children's Book Week</t>
+  </si>
+  <si>
+    <t>http://abookand.com/2014/08/16/1780/#more-1780</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>The Tactile Picture Books Project. Bringing Books Alive For Visually-Impaired Children</t>
+  </si>
+  <si>
+    <t>http://www.womenmakewaves.co.uk/tactile-picture-books-project-bringing-books-alive-visually-impaired-children/</t>
+  </si>
+  <si>
+    <t>3D Hubs</t>
+  </si>
+  <si>
+    <t>Women Makes Waves</t>
+  </si>
+  <si>
+    <t>Maker Talk: Creating tactile storybooks for children with visual impairment</t>
+  </si>
+  <si>
+    <t>http://blog.3dhubs.com/tagged/maker-tales</t>
+  </si>
+  <si>
+    <t>DailyMail</t>
+  </si>
+  <si>
+    <t>http://www.dailymail.co.uk/femail/article-2679393/Now-FEEL-Cat-Hat-Researchers-use-3D-printing-help-blind-children-enjoy-classic-bedtime-stories.html</t>
+  </si>
+  <si>
+    <t>Now you can FEEL the Cat in the Hat: Researchers use 3D printing to help blind children enjoy classic bedtime stories</t>
+  </si>
+  <si>
+    <t>Mashable</t>
+  </si>
+  <si>
+    <t>http://mashable.com/2014/07/03/3d-printed-book/?utm_cid=mash-com-Tw-main-link</t>
+  </si>
+  <si>
+    <t>Imagining a New Way to Read, One 3D-Printed Book at a Time</t>
+  </si>
+  <si>
+    <t>NewsWeek</t>
+  </si>
+  <si>
+    <t>http://www.newsweek.com/visually-impaired-children-can-now-experience-world-literary-classics-thanks-3d-257769</t>
+  </si>
+  <si>
+    <t>3-D Printing Enables Visually Impaired Children to Experience the World of Literary Classics</t>
+  </si>
+  <si>
+    <t>NanoWerk</t>
+  </si>
+  <si>
+    <t>3D-printed picture books for visually impaired children</t>
+  </si>
+  <si>
+    <t>http://www.nanowerk.com/news2/gadget/newsid=36416.php</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>DailyCamera</t>
+  </si>
+  <si>
+    <t>CU-Boulder Researchers Create Children’s books with 3-D printing</t>
+  </si>
+  <si>
+    <t>http://www.dailycamera.com/cu-news/ci_26048668/cu-boulder-researchers-create-childrens-books-3-d</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>CU Creates 3D Book Program for Blind Children</t>
+  </si>
+  <si>
+    <t>9 News</t>
+  </si>
+  <si>
+    <t>http://www.9news.com/story/news/education/2014/06/20/3d%C2%ADbooks%C2%ADblind%C2%ADchildren/11070609/</t>
+  </si>
+  <si>
+    <t>CU Engineering Magazine</t>
+  </si>
+  <si>
+    <t>Reading in 3D: Making Books for Visually Impaired Children</t>
+  </si>
+  <si>
+    <t>http://www.colorado.edu/news/features/reading-3%C2%ADd-making-books-visually-impaired-children</t>
+  </si>
+  <si>
+    <t>ScienceDaily</t>
+  </si>
+  <si>
+    <t>Picture books for visually impaired kids go 3-D</t>
+  </si>
+  <si>
+    <t>http://www.sciencedaily.com/releases/2014/06/140623155101.htm</t>
+  </si>
+  <si>
+    <t>3ders</t>
+  </si>
+  <si>
+    <t>http://www.3ders.org/articles/20140624-3d-printed-tactile-picture-books-for-visually-impaired-kids.html</t>
+  </si>
+  <si>
+    <t>3D Printed Tactile Picture Books for Visually Impaired Kids</t>
+  </si>
+  <si>
+    <t>MataTrebd (Vol. 57)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tangible Context </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전달되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텍스트</t>
+    </r>
+  </si>
+  <si>
+    <t>3D printing: a tool in revolutionizing the books for visually impaired children</t>
+  </si>
+  <si>
+    <t>Masters of Media</t>
+  </si>
+  <si>
+    <t>http://mastersofmedia.hum.uva.nl/2014/09/17/3d-printing-a-tool-in-revolutionizing-the-books-for-visually-impaired-children/</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Beyond Braille: 3-D Printed Books For The Blind</t>
+  </si>
+  <si>
+    <t>http://explainers.nysci.org/post/95149940940/beyond-braille-add-tactile-picture-books-to-the</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>Paths to Literacy</t>
+  </si>
+  <si>
+    <t>http://www.pathstoliteracy.org/research/tactile-picture-books-project</t>
+  </si>
+  <si>
+    <t>Tactile Picture Books Project</t>
+  </si>
+  <si>
+    <t>3D Imprimalia</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>http://www.imprimalia3d.com/recursosimpresion3d/libros-t-ctiles-impresos-3d-ni-os-ciegos</t>
+  </si>
+  <si>
+    <t>Libros táctiles impresos en 3D para niños ciegos</t>
+  </si>
+  <si>
+    <t>Pink Giraffe</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>http://pgbooks.ru/pg_recommend/life_with_kids/knigi-rozovogo-zhirafa-napechatali-na-trekhmernom-printere-eto-revolyu1/</t>
+  </si>
+  <si>
+    <t>Eletric Literacture</t>
+  </si>
+  <si>
+    <t>3-D Printed Storybooks for the Visually Impaired</t>
+  </si>
+  <si>
+    <t>http://electricliterature.com/3-d-printed-storybooks-for-the-visually-impaired/</t>
+  </si>
+  <si>
+    <t>CU Engineering Library</t>
+  </si>
+  <si>
+    <t>3D-Printed Book Installation at the Gemmill Library</t>
+  </si>
+  <si>
+    <t>http://libpress.colorado.edu/?p=4048</t>
+  </si>
+  <si>
+    <t>CU Outreach</t>
+  </si>
+  <si>
+    <t>http://outreach.colorado.edu/highlights/view/id/87</t>
+  </si>
+  <si>
+    <t>Re-envisioning Reading with 3D-printed Picture Books</t>
+  </si>
+  <si>
+    <t>Westport News</t>
+  </si>
+  <si>
+    <t>Visionary technology: Westport Library's 3-D printer helps blind children read</t>
+  </si>
+  <si>
+    <t>http://www.westport-news.com/news/article/Visionary-technology-Westport-Library-s-3-D-5831426.php</t>
+  </si>
+  <si>
+    <t>"Pink Giraffe" printed on a three­dimensional printer. It's a Revolution in Education!</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>Honorable Mention</t>
+  </si>
+  <si>
+    <t>Predicting Users' First Impressions of Website Aesthetics With a Quantification of Perceived Visual Complexity and Colorfulness", Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t>CISE</t>
+  </si>
+  <si>
+    <t>iConference</t>
+  </si>
+  <si>
+    <t>Like This, But Better: Supporting Novices' Design and Fabrication of 3D Models Using Existing Objects</t>
+  </si>
+  <si>
+    <t>Patrick Carrington; Shannon Hosmer; Tom Yeh; Amy Hurst; Shaun Kane</t>
+  </si>
+  <si>
+    <t>SIGSCE</t>
+  </si>
+  <si>
+    <t>Mike Skirpan; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Beyond the Flipped Classroom: Learning by Doing Through Challenges and Hack-a-thons</t>
+  </si>
+  <si>
+    <t>Hacker News</t>
+  </si>
+  <si>
+    <t>https://news.ycombinator.com/item?id=8391166</t>
+  </si>
+  <si>
+    <t>Sikuli: Write scripts using GUI buttons and screenshots</t>
+  </si>
+  <si>
+    <t>Seven ways DARPA is trying to kill the password</t>
+  </si>
+  <si>
+    <t>Computer World</t>
+  </si>
+  <si>
+    <t>http://www.computerworld.com/article/2491026/data-center-seven-ways-darpa-is-trying-to-kill-the-password.html</t>
+  </si>
+  <si>
+    <t>CREU</t>
+  </si>
+  <si>
+    <t>Taxonomizing the User-Centered Design Strategies of Online Citizen Science Projects</t>
+  </si>
+  <si>
+    <t>Emily Bertelson; Sarah Feller</t>
+  </si>
+  <si>
+    <t>DLA</t>
+  </si>
+  <si>
+    <t>Discovery Learning Apprenticeship</t>
+  </si>
+  <si>
+    <t>Ian Char; Brennan Mcconnell</t>
+  </si>
+  <si>
+    <t>Information Retrieval</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2688815</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2559206.2581352</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2659110</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2661211&amp;dl=ACM&amp;coll=DL&amp;CFID=460639285&amp;CFTOKEN=15966935</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2581341</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167865514000488</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2556420.2556497</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2610482</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?doid=2628363.2634223</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2481281</t>
+  </si>
+  <si>
+    <t>http://www.tei-conf.org/14/program/413.php</t>
+  </si>
+  <si>
+    <t>Abstracting Perception and Manipulation in End-User Robot Programming using Sikuli</t>
+  </si>
+  <si>
+    <t>TePRA</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Technologies for Practical Robot Applications</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/xpl/login.jsp?tp=&amp;arnumber=6869156</t>
+  </si>
+  <si>
+    <t>Mike Kasper; Nikolaus Correll; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Katharina Reinecke, Tom Yeh, Luke Miratrix, Rahmatri Mardiko, Yuechen Zhao, Jenny Liu, Krzysztof Z. Gajos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +984,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple SD 산돌고딕 Neo 일반체"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -571,7 +1009,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,14 +1135,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="174">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -767,6 +1255,52 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -829,6 +1363,9 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1158,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1173,7 +1710,7 @@
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1192,8 +1729,14 @@
       <c r="F1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1210,32 +1753,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1243,25 +1786,28 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -1269,104 +1815,122 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2014</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2014</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -1374,70 +1938,159 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="H15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>2014</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F18" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>2013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +2112,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1488,6 +2141,9 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -1499,6 +2155,9 @@
       <c r="C3" t="s">
         <v>46</v>
       </c>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -1509,6 +2168,9 @@
       </c>
       <c r="C4" t="s">
         <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1576,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1891,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1991,19 +2653,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
         <v>89</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2014,13 +2676,13 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>89</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2028,16 +2690,16 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2045,16 +2707,16 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2065,13 +2727,13 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2079,16 +2741,16 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2096,16 +2758,16 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2113,16 +2775,16 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2130,16 +2792,16 @@
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2147,16 +2809,16 @@
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2164,16 +2826,16 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2181,16 +2843,16 @@
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2198,16 +2860,16 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2215,16 +2877,16 @@
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D19" t="s">
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2232,20 +2894,71 @@
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
       </c>
       <c r="E20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E18">
+  <sortState ref="A2:E23">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2485,4 +3198,591 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="2">
+        <v>41929</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="2">
+        <v>41910</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="2">
+        <v>41899</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41879</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41874</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>41867</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="2">
+        <v>41864</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="2">
+        <v>41864</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41860</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41859</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>41827</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41827</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="2">
+        <v>41826</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41818</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="2">
+        <v>41815</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="2">
+        <v>41814</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="2">
+        <v>41813</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41811</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41766</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41743</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41701</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G27">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="4860" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="17560" yWindow="5320" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="333">
   <si>
     <t>IDC</t>
   </si>
@@ -289,12 +289,6 @@
     <t>course</t>
   </si>
   <si>
-    <t>HCC Big Data</t>
-  </si>
-  <si>
-    <t>Rapid Prototyping</t>
-  </si>
-  <si>
     <t>instructor</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
   </si>
   <si>
     <t>PhD prelim</t>
-  </si>
-  <si>
-    <t>User-Centered Design and Development II</t>
   </si>
   <si>
     <t>Erik Komendera</t>
@@ -842,9 +833,6 @@
     <t>Honorable Mention</t>
   </si>
   <si>
-    <t>Predicting Users' First Impressions of Website Aesthetics With a Quantification of Perceived Visual Complexity and Colorfulness", Human Factors in Computing Systems</t>
-  </si>
-  <si>
     <t>CISE</t>
   </si>
   <si>
@@ -902,9 +890,6 @@
     <t>Ian Char; Brennan Mcconnell</t>
   </si>
   <si>
-    <t>Information Retrieval</t>
-  </si>
-  <si>
     <t>http://dl.acm.org/citation.cfm?id=2688815</t>
   </si>
   <si>
@@ -954,6 +939,144 @@
   </si>
   <si>
     <t>Katharina Reinecke, Tom Yeh, Luke Miratrix, Rahmatri Mardiko, Yuechen Zhao, Jenny Liu, Krzysztof Z. Gajos</t>
+  </si>
+  <si>
+    <t>Paul Givens, Aleksandar Chakarov, Sriram Sankaranarayanan, Tom Yeh</t>
+  </si>
+  <si>
+    <t>Exploring the internal state of user interfaces by combining computer vision techniques with grammatical inference</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2486951</t>
+  </si>
+  <si>
+    <t>ICSE</t>
+  </si>
+  <si>
+    <t>IT Professional</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/xpl/login.jsp?tp=&amp;arnumber=6559984</t>
+  </si>
+  <si>
+    <t>Screen Fingerprints: A Novel Modality for Active Authentication</t>
+  </si>
+  <si>
+    <t>Vishal Patel, Tom Yeh, Mohammed Salem, Yangmuzi Zhang, Yan Chen, Rama Chellappa, Larry Davis</t>
+  </si>
+  <si>
+    <t>Leveraging user comments for aesthetic aware image search reranking</t>
+  </si>
+  <si>
+    <t>Jose San Pedro, Tom Yeh, Nuria Oliver</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2187896</t>
+  </si>
+  <si>
+    <t>Predicting Users' First Impressions of Website Aesthetics With a Quantification of Perceived Visual Complexity and Colorfulness</t>
+  </si>
+  <si>
+    <t>Teaching Blind High School Students Programming via a Guessing Game</t>
+  </si>
+  <si>
+    <t>AccessComputing Mini-Grant</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>CHI; UIST; IUI</t>
+  </si>
+  <si>
+    <t>HCC Big Data (Spring)</t>
+  </si>
+  <si>
+    <t>HCC Big Data (Fall)</t>
+  </si>
+  <si>
+    <t>Rapid Prototyping (Spring)</t>
+  </si>
+  <si>
+    <t>Information Retrieval (Spring)</t>
+  </si>
+  <si>
+    <t>User-Centered Design and Development II (Spring)</t>
+  </si>
+  <si>
+    <t>Socio-Technical Frameworks and Systems that Motivate People to Reduce Their Energy Consumption</t>
+  </si>
+  <si>
+    <t>Holger Dick</t>
+  </si>
+  <si>
+    <t>Jaeheon Jeong</t>
+  </si>
+  <si>
+    <t>Visual Odometry with minimally overlapped trinocular cameras</t>
+  </si>
+  <si>
+    <t>Tangible Input Devices for Introductory Digital Fabrication</t>
+  </si>
+  <si>
+    <t>Ben Leduc-Mills</t>
+  </si>
+  <si>
+    <t>Jason Zietz</t>
+  </si>
+  <si>
+    <t>Utilizing a Socio-technical System to Foster and Support Mindfulness to Engender Persistent Pro-Environmental Behaviors</t>
+  </si>
+  <si>
+    <t>Brett Roads</t>
+  </si>
+  <si>
+    <t>Using Attentional Highlighting to Train Visual Expertise</t>
+  </si>
+  <si>
+    <t>Nick Vanderweit</t>
+  </si>
+  <si>
+    <t>AcesUp: Crashing Libraries with Mocks</t>
+  </si>
+  <si>
+    <t>Embodied Fabrication:Body-Centric Devices for Novice Designers</t>
+  </si>
+  <si>
+    <t>Easigami: Virtual Creation by Physical Folding</t>
+  </si>
+  <si>
+    <t>Yingdan Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayman O Hammuda </t>
+  </si>
+  <si>
+    <t>Face Detection Using Single Cascade of Customized Feature Discriminators</t>
+  </si>
+  <si>
+    <t>Houman Farokhzad</t>
+  </si>
+  <si>
+    <t>Synapsage: Crowd-sourced Lecture Recording using Smartphones</t>
+  </si>
+  <si>
+    <t>Yu-Li Liang</t>
+  </si>
+  <si>
+    <t>Feature Extraction in Sequential Multimedia Images: with Applications in Satellite Images and On-line Videos</t>
+  </si>
+  <si>
+    <t>Integrated Information Modeling of Construction Project Productivity</t>
+  </si>
+  <si>
+    <t>Yongwei Shan</t>
+  </si>
+  <si>
+    <t>Program Committee</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1132,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,6 +1263,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1192,7 +1352,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1301,6 +1461,43 @@
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1695,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1730,10 +1927,10 @@
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1758,13 +1955,13 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1787,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1795,13 +1992,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1824,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1844,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1852,22 +2049,22 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1907,7 +2104,7 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1927,7 +2124,7 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1947,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1967,7 +2164,7 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1987,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2007,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2027,7 +2224,7 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2075,10 +2272,10 @@
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -2087,10 +2284,70 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>2012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2109,15 +2366,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2125,13 +2385,16 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -2142,85 +2405,105 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>251</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2013</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2014</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2014</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2014</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2236,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2413,13 +2696,13 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>2014</v>
@@ -2485,6 +2768,26 @@
         <v>2012</v>
       </c>
       <c r="F12">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13">
+        <v>2013</v>
+      </c>
+      <c r="F13">
         <v>2014</v>
       </c>
     </row>
@@ -2537,7 +2840,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2553,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2564,6 +2867,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2580,7 +2884,7 @@
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2588,16 +2892,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2605,16 +2909,16 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2622,16 +2926,16 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2642,10 +2946,10 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>29</v>
@@ -2659,10 +2963,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -2676,10 +2980,10 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
       </c>
       <c r="E7">
         <v>23</v>
@@ -2693,10 +2997,10 @@
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>32</v>
@@ -2707,16 +3011,16 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2724,16 +3028,16 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2741,16 +3045,16 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2758,16 +3062,16 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2775,16 +3079,16 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2792,16 +3096,16 @@
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2809,16 +3113,16 @@
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2826,16 +3130,16 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2843,16 +3147,16 @@
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2860,16 +3164,16 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2877,16 +3181,16 @@
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2894,16 +3198,16 @@
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2911,16 +3215,16 @@
         <v>2014</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2928,16 +3232,16 @@
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2945,16 +3249,271 @@
         <v>2014</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2013</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2012</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>2012</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2989,13 +3548,13 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3006,13 +3565,13 @@
         <v>2012</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3023,13 +3582,13 @@
         <v>2009</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3040,13 +3599,13 @@
         <v>2005</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3057,13 +3616,13 @@
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3096,13 +3655,13 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3110,13 +3669,13 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3124,13 +3683,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3138,13 +3697,13 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3152,13 +3711,13 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3166,13 +3725,13 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3180,13 +3739,13 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3779,7 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -3232,10 +3791,10 @@
         <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3246,16 +3805,16 @@
         <v>41929</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
@@ -3266,16 +3825,16 @@
         <v>41913</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3286,16 +3845,16 @@
         <v>41913</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3306,19 +3865,19 @@
         <v>41910</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3329,16 +3888,16 @@
         <v>41899</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3349,16 +3908,16 @@
         <v>41879</v>
       </c>
       <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
         <v>172</v>
       </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>175</v>
-      </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3369,16 +3928,16 @@
         <v>41874</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3389,19 +3948,19 @@
         <v>41867</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3412,19 +3971,19 @@
         <v>41864</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" t="s">
-        <v>183</v>
-      </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3435,16 +3994,16 @@
         <v>41864</v>
       </c>
       <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
         <v>220</v>
       </c>
-      <c r="D11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" t="s">
-        <v>223</v>
-      </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3455,16 +4014,16 @@
         <v>41860</v>
       </c>
       <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
         <v>179</v>
       </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>182</v>
-      </c>
-      <c r="G12" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3475,16 +4034,16 @@
         <v>41859</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3495,19 +4054,19 @@
         <v>41852</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3518,16 +4077,16 @@
         <v>41827</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3538,16 +4097,16 @@
         <v>41827</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1">
@@ -3558,16 +4117,16 @@
         <v>41826</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3578,16 +4137,16 @@
         <v>41823</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3598,16 +4157,16 @@
         <v>41823</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3618,16 +4177,16 @@
         <v>41818</v>
       </c>
       <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
         <v>198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3638,19 +4197,19 @@
         <v>41815</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3661,16 +4220,16 @@
         <v>41814</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3681,16 +4240,16 @@
         <v>41813</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
@@ -3701,16 +4260,16 @@
         <v>41811</v>
       </c>
       <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
         <v>202</v>
-      </c>
-      <c r="D24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
@@ -3721,16 +4280,16 @@
         <v>41766</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3741,16 +4300,16 @@
         <v>41743</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3761,16 +4320,16 @@
         <v>41701</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="5320" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17540" yWindow="5620" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="386">
   <si>
     <t>IDC</t>
   </si>
@@ -1077,6 +1077,166 @@
   </si>
   <si>
     <t>Program Committee</t>
+  </si>
+  <si>
+    <t>requested</t>
+  </si>
+  <si>
+    <t>Collaborative Research: MultiNets - Designing Crowdsourcing Platforms to Scaffold Collaborative Learning for Students Solving Complex Problems</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>Small: Collaborative Research: Learning From Crowd-sourcing: A Cyber-Human System for Improving the Quality of Citizen Science</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>Interpreting Basic Concept Diagrams for Preschool Children with Visual Impairment</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>Allen Foundation</t>
+  </si>
+  <si>
+    <t>Diagram</t>
+  </si>
+  <si>
+    <t>Knight Foundation</t>
+  </si>
+  <si>
+    <t>Libraries for the Future</t>
+  </si>
+  <si>
+    <t>3D Printed Children’s Books for Blind Children</t>
+  </si>
+  <si>
+    <t>Collecting and Mining Revision Histories in Google Drive to Support Find-grained Learning Analytics</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Faculty Award</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>Developing an eHealth Tutorial for Older Adults to Use Online Health Resources</t>
+  </si>
+  <si>
+    <t>awarded</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>declined</t>
+  </si>
+  <si>
+    <t>NRI</t>
+  </si>
+  <si>
+    <t>HCC</t>
+  </si>
+  <si>
+    <t>Small: Collaborative Research: Crowdsourcing design for citizen science: Quantifying the effect of diverse perspectives on collective creativity</t>
+  </si>
+  <si>
+    <t>Large: Collaborative Research: Abstracting Perception and Manipulation in End-User Robot Programming for Vertical Farming Automation</t>
+  </si>
+  <si>
+    <t>Medium: Collaborative Research: CrowdVision: New Ways of 'Seeing' in Disaster Events through Computer Vision &amp; Human-Machine Computation</t>
+  </si>
+  <si>
+    <t>Small: Collaborative Research: Designing and Printing Tactile Picture Books for Preschoolers with Visual Impairments at Home</t>
+  </si>
+  <si>
+    <t>NRI: Abstracting 3D Object Perception, Registration, and Manipulation Using Rokuli</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Small: Accessible 3D Design and Printing for People with Vision Impairments</t>
+  </si>
+  <si>
+    <t>VISE: Visual Interface Search Engine for Big Data Analytics</t>
+  </si>
+  <si>
+    <t>XDATA</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>NIER</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>The New Ideas and Emerging Results (NIER) track is meant (1) to provide researchers with a forum for presenting and getting early feedback on novel research ideas and promising work that has not yet been fully evaluated; and (2) to accelerate the exposure of the community to early yet promising and potentially
+inspiring research efforts. The track received 162 submissions, from which 147 fit the call for papers. The paper selection process consisted of two phases. In the first phase, all conforming submissions were reviewed by three PC members. In the second phase, online discussions were used to finalize the paper selection. In the end, 31 papers (22 %) were selected as part of the program. They cover new perspectives on such topics as dependability, collaboration, modeling, and support for tomorrow’s developer. All accepted papers will be presented at a poster session at the conference. Among the accepted papers, the 20 deemed most likely to yield engaging discussions will be presented in one of the four NIER sessions</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Esther Vasiete</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>graduated</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>Erin Duggan</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>external</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1344,15 +1504,202 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="397">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1498,6 +1845,99 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1563,6 +2003,99 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1892,10 +2425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1903,11 +2436,14 @@
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" customWidth="1"/>
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1930,10 +2466,19 @@
         <v>249</v>
       </c>
       <c r="H1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1949,8 +2494,14 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -1966,8 +2517,14 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1983,11 +2540,17 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -2003,8 +2566,11 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2020,11 +2586,17 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -2040,11 +2612,17 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -2063,11 +2641,11 @@
       <c r="F8" t="s">
         <v>283</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -2087,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -2103,11 +2681,14 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -2123,11 +2704,14 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>372</v>
+      </c>
+      <c r="J11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -2143,11 +2727,17 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -2163,11 +2753,14 @@
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -2183,11 +2776,14 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -2203,11 +2799,17 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J15" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -2223,11 +2825,17 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -2246,8 +2854,11 @@
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -2266,8 +2877,11 @@
       <c r="F18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>2013</v>
       </c>
@@ -2286,11 +2900,17 @@
       <c r="G19" t="s">
         <v>250</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:11" ht="105">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -2306,11 +2926,23 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="F20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J20" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -2326,11 +2958,14 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2012</v>
       </c>
@@ -2346,7 +2981,13 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J22" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2366,10 +3007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2377,7 +3018,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2393,8 +3034,11 @@
       <c r="E1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -2410,8 +3054,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -2421,8 +3068,11 @@
       <c r="C3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -2435,8 +3085,11 @@
       <c r="D4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -2449,8 +3102,11 @@
       <c r="D5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -2466,8 +3122,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2477,8 +3136,11 @@
       <c r="C7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -2491,8 +3153,11 @@
       <c r="D8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -2504,6 +3169,9 @@
       </c>
       <c r="D9" t="s">
         <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -2519,19 +3187,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="73.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2550,8 +3220,23 @@
       <c r="F1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2570,8 +3255,17 @@
       <c r="F2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>549999</v>
+      </c>
+      <c r="H2">
+        <v>549999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2590,8 +3284,17 @@
       <c r="F3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>306516</v>
+      </c>
+      <c r="H3">
+        <v>306516</v>
+      </c>
+      <c r="J3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2610,8 +3313,17 @@
       <c r="F4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1599343</v>
+      </c>
+      <c r="H4">
+        <v>319865</v>
+      </c>
+      <c r="J4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -2630,8 +3342,17 @@
       <c r="F5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>39999</v>
+      </c>
+      <c r="H5">
+        <v>39999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2650,8 +3371,17 @@
       <c r="F6">
         <v>2015</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>39999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2670,8 +3400,17 @@
       <c r="F7">
         <v>2014</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>8000</v>
+      </c>
+      <c r="H7">
+        <v>8000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2690,8 +3429,17 @@
       <c r="F8">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>483734</v>
+      </c>
+      <c r="H8">
+        <v>202774</v>
+      </c>
+      <c r="J8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -2710,8 +3458,17 @@
       <c r="F9">
         <v>2015</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>8000</v>
+      </c>
+      <c r="H9">
+        <v>8000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2730,8 +3487,17 @@
       <c r="F10">
         <v>2013</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>3000</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2750,8 +3516,17 @@
       <c r="F11">
         <v>2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1000000</v>
+      </c>
+      <c r="H11">
+        <v>225000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2770,8 +3545,17 @@
       <c r="F12">
         <v>2014</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>399874</v>
+      </c>
+      <c r="H12">
+        <v>46168</v>
+      </c>
+      <c r="J12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2789,6 +3573,337 @@
       </c>
       <c r="F13">
         <v>2014</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>5000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14">
+        <v>369643</v>
+      </c>
+      <c r="J14" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I15">
+        <v>140293</v>
+      </c>
+      <c r="J15" t="s">
+        <v>353</v>
+      </c>
+      <c r="K15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+      <c r="I16">
+        <v>1309214</v>
+      </c>
+      <c r="J16" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>343</v>
+      </c>
+      <c r="I17">
+        <v>465000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" t="s">
+        <v>347</v>
+      </c>
+      <c r="I18">
+        <v>55000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>353</v>
+      </c>
+      <c r="K18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19">
+        <v>99323</v>
+      </c>
+      <c r="J19" t="s">
+        <v>353</v>
+      </c>
+      <c r="K19">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20">
+        <v>655639</v>
+      </c>
+      <c r="J20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I21">
+        <v>87576</v>
+      </c>
+      <c r="J21" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22">
+        <v>299809</v>
+      </c>
+      <c r="J22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K22">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23">
+        <v>374951</v>
+      </c>
+      <c r="J23" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24">
+        <v>1103179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>361</v>
+      </c>
+      <c r="K24">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25">
+        <v>495296</v>
+      </c>
+      <c r="J25" t="s">
+        <v>361</v>
+      </c>
+      <c r="K25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>364</v>
+      </c>
+      <c r="I26">
+        <v>980969</v>
+      </c>
+      <c r="J26" t="s">
+        <v>353</v>
+      </c>
+      <c r="K26">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>365</v>
+      </c>
+      <c r="I27">
+        <v>923364</v>
+      </c>
+      <c r="J27" t="s">
+        <v>353</v>
+      </c>
+      <c r="K27">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +3922,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2859,7 +3974,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2892,16 +4007,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2909,72 +4024,72 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -2986,7 +4101,7 @@
         <v>87</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2994,16 +4109,16 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3011,16 +4126,16 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>320</v>
+        <v>267</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3028,16 +4143,16 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3045,16 +4160,16 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3062,16 +4177,16 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3082,64 +4197,64 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>321</v>
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>325</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>314</v>
+      <c r="E16" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3147,16 +4262,16 @@
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3164,16 +4279,16 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3181,16 +4296,16 @@
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
+        <v>88</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3198,16 +4313,16 @@
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3218,166 +4333,166 @@
         <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
         <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>127</v>
+      <c r="C23" t="s">
+        <v>309</v>
       </c>
       <c r="D23" t="s">
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>322</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>309</v>
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3385,16 +4500,16 @@
         <v>2013</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>318</v>
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3404,22 +4519,22 @@
       <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>316</v>
+      <c r="C32" t="s">
+        <v>313</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="E32" t="s">
-        <v>315</v>
+      <c r="E32" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>312</v>
@@ -3433,92 +4548,92 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>314</v>
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>312</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>328</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E23">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:E38">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3638,10 +4753,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3650,7 +4765,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -3663,8 +4778,14 @@
       <c r="D1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3677,8 +4798,14 @@
       <c r="D2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2017</v>
+      </c>
+      <c r="F2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -3691,8 +4818,14 @@
       <c r="D3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -3705,8 +4838,14 @@
       <c r="D4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -3719,8 +4858,14 @@
       <c r="D5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3733,8 +4878,14 @@
       <c r="D6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3746,6 +4897,92 @@
       </c>
       <c r="D7" t="s">
         <v>154</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E8">
+        <v>2015</v>
+      </c>
+      <c r="F8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
+      </c>
+      <c r="F9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10">
+        <v>2013</v>
+      </c>
+      <c r="F10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E11">
+        <v>2015</v>
+      </c>
+      <c r="F11" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3764,14 +5001,14 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17540" yWindow="5620" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3285,7 +3285,7 @@
         <v>2018</v>
       </c>
       <c r="G3">
-        <v>306516</v>
+        <v>2390552</v>
       </c>
       <c r="H3">
         <v>306516</v>
@@ -3375,7 +3375,7 @@
         <v>3000</v>
       </c>
       <c r="H6">
-        <v>39999</v>
+        <v>3000</v>
       </c>
       <c r="J6" t="s">
         <v>351</v>

--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1160" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="grants" sheetId="3" r:id="rId3"/>
     <sheet name="awards" sheetId="4" r:id="rId4"/>
     <sheet name="teaching" sheetId="5" r:id="rId5"/>
-    <sheet name="education" sheetId="6" r:id="rId6"/>
-    <sheet name="phd" sheetId="7" r:id="rId7"/>
-    <sheet name="press" sheetId="8" r:id="rId8"/>
+    <sheet name="advising" sheetId="10" r:id="rId6"/>
+    <sheet name="education" sheetId="6" r:id="rId7"/>
+    <sheet name="phd" sheetId="7" r:id="rId8"/>
+    <sheet name="press" sheetId="8" r:id="rId9"/>
+    <sheet name="appointments" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
   <si>
     <t>IDC</t>
   </si>
@@ -331,9 +333,6 @@
     <t>Michael Aaron</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Emily Bertelson</t>
   </si>
   <si>
@@ -415,9 +414,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>PostDoc</t>
-  </si>
-  <si>
     <t>PhD Computer Science</t>
   </si>
   <si>
@@ -443,12 +439,6 @@
   </si>
   <si>
     <t>Burnaby</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>College Park</t>
   </si>
   <si>
     <t>The Student Affairs Faculty of the Year Award recognizes a superb faculty member that demonstrates outstanding engagement with students and contributions to the university community based on areas such as promoting diversity or fostering intellectual growth.</t>
@@ -992,21 +982,6 @@
     <t>CHI; UIST; IUI</t>
   </si>
   <si>
-    <t>HCC Big Data (Spring)</t>
-  </si>
-  <si>
-    <t>HCC Big Data (Fall)</t>
-  </si>
-  <si>
-    <t>Rapid Prototyping (Spring)</t>
-  </si>
-  <si>
-    <t>Information Retrieval (Spring)</t>
-  </si>
-  <si>
-    <t>User-Centered Design and Development II (Spring)</t>
-  </si>
-  <si>
     <t>Socio-Technical Frameworks and Systems that Motivate People to Reduce Their Energy Consumption</t>
   </si>
   <si>
@@ -1237,13 +1212,169 @@
   </si>
   <si>
     <t>external</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>University of Colorado Boulder</t>
+  </si>
+  <si>
+    <t>Department of Computer Science</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>2012 - Present</t>
+  </si>
+  <si>
+    <t>2009 - 2011</t>
+  </si>
+  <si>
+    <t>Assistant Research Scientist</t>
+  </si>
+  <si>
+    <t>UMIACS</t>
+  </si>
+  <si>
+    <t>2001 - 2012</t>
+  </si>
+  <si>
+    <t>Postdoctoral Research Associate</t>
+  </si>
+  <si>
+    <t>National Science Foundation CAREER Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive Tactile Picture Books for Blind Children during Emergent Literacy. </t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>Tom Yeh</t>
+  </si>
+  <si>
+    <t>Jenny Preece</t>
+  </si>
+  <si>
+    <t>Evan Chang</t>
+  </si>
+  <si>
+    <t>Mary Lou Maher</t>
+  </si>
+  <si>
+    <t>Atif Memon</t>
+  </si>
+  <si>
+    <t>Rama Chellappa</t>
+  </si>
+  <si>
+    <t>copis</t>
+  </si>
+  <si>
+    <t>Mary Lou Maher; Tammy Cleggs; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Jenny Preece; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Evan Chang; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Larry Davis; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Kenneth M. Anderson; Pavol Cerny; Sriram Sankaranarayanan; Tom Yeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the ACM Conference on Human Factors in Computing Systems </t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM Technical Symposium on Computer Science Education</t>
+  </si>
+  <si>
+    <t>Khalid Alharbi; Tom Yeh</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference on Human-Computer Interaction with Mobile Devices and Services Companion</t>
+  </si>
+  <si>
+    <t>Collect, Decompile, Extract, Stats, and Diff: Mining Design Pattern Changes in Android Apps</t>
+  </si>
+  <si>
+    <t>Transcribing Across the Senses: Community Efforts to Create 3D Printable Accessible Tactile Pictures for Young Children with Visual Impairments</t>
+  </si>
+  <si>
+    <t>Abigale Stangl; Caleb Hsu; Tom Yeh</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t>Proceedings of the International ACM SIGACCESS Conference on Computers and Accessibility</t>
+  </si>
+  <si>
+    <t>Proceedings of the International World Wide Web Conference</t>
+  </si>
+  <si>
+    <t>Diff-DOM: A tool to identify and troubleshoot CSS changes to a web user interface</t>
+  </si>
+  <si>
+    <t>GateType: A More Flexible Intertwined JavaScript Type Analysis</t>
+  </si>
+  <si>
+    <t>Conlect: A Simple Tool for Sharing Organizational Data</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Rapid Prototyping</t>
+  </si>
+  <si>
+    <t>HCC Big Data</t>
+  </si>
+  <si>
+    <t>Information Retrieval</t>
+  </si>
+  <si>
+    <t>User-Centered Design and Development II</t>
+  </si>
+  <si>
+    <t>Technical Advances in User Interfaces</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1274,6 +1405,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1292,7 +1430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="397">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1690,16 +1828,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="397">
+  <cellStyles count="451">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1938,6 +2134,33 @@
     <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2096,6 +2319,33 @@
     <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2425,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2438,7 +2688,7 @@
     <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="130" customWidth="1"/>
   </cols>
@@ -2463,19 +2713,19 @@
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="I1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2483,22 +2733,22 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>410</v>
+      </c>
       <c r="H2" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>373</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2506,22 +2756,25 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>404</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" t="s">
+        <v>246</v>
+      </c>
       <c r="H3" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>373</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2529,25 +2782,25 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>402</v>
       </c>
       <c r="H4" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" t="s">
-        <v>270</v>
+        <v>0.23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2555,30 +2808,36 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
         <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.38</v>
+      </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2587,39 +2846,33 @@
         <v>10</v>
       </c>
       <c r="H6" s="3">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J7" t="s">
-        <v>271</v>
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2627,22 +2880,25 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>283</v>
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2650,19 +2906,25 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2670,22 +2932,22 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>372</v>
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>279</v>
       </c>
       <c r="J10" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2693,22 +2955,19 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>372</v>
-      </c>
-      <c r="J11" t="s">
-        <v>273</v>
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2716,25 +2975,22 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>371</v>
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>363</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2742,22 +2998,22 @@
         <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2765,22 +3021,25 @@
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>372</v>
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="J14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2788,25 +3047,22 @@
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.43</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>371</v>
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>364</v>
       </c>
       <c r="J15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2814,25 +3070,22 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>371</v>
+      <c r="I16" t="s">
+        <v>363</v>
       </c>
       <c r="J16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2840,22 +3093,25 @@
         <v>2014</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.43</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+      <c r="J17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2863,83 +3119,74 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>405</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
+      </c>
+      <c r="J18" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.2</v>
+      <c r="F19" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="105">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>367</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.22</v>
+        <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J20" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2947,48 +3194,112 @@
         <v>2013</v>
       </c>
       <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="105">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>358</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J22" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>2013</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>2012</v>
+      </c>
+      <c r="B24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J24" t="s">
         <v>294</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" t="s">
-        <v>291</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>2012</v>
-      </c>
-      <c r="B22" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J22" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3005,12 +3316,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3026,13 +3414,13 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F1" t="s">
         <v>84</v>
@@ -3040,36 +3428,33 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3077,16 +3462,19 @@
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3094,50 +3482,47 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>158</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3145,33 +3530,67 @@
         <v>2013</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>247</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>2012</v>
       </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" t="s">
-        <v>385</v>
+      <c r="D11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3187,21 +3606,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="73.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -3209,34 +3630,40 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
-      </c>
       <c r="I1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>324</v>
+      </c>
+      <c r="L1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3244,28 +3671,31 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2015</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>2020</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>549999</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>549999</v>
       </c>
-      <c r="J2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3273,28 +3703,34 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2015</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2018</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2390552</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>306516</v>
       </c>
-      <c r="J3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3302,57 +3738,69 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="E4">
-        <v>2014</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>2014</v>
+      </c>
+      <c r="H4">
         <v>2018</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1599343</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>319865</v>
       </c>
-      <c r="J4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="E5">
-        <v>2014</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>2014</v>
+      </c>
+      <c r="H5">
         <v>2015</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>39999</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>39999</v>
       </c>
-      <c r="J5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3360,28 +3808,31 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
-        <v>2014</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>2014</v>
+      </c>
+      <c r="H6">
         <v>2015</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>3000</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3000</v>
       </c>
-      <c r="J6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3389,28 +3840,31 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2013</v>
       </c>
-      <c r="F7">
-        <v>2014</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>2014</v>
+      </c>
+      <c r="I7">
         <v>8000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>8000</v>
       </c>
-      <c r="J7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3418,57 +3872,66 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2013</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>2015</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>483734</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>202774</v>
       </c>
-      <c r="J8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9">
-        <v>2014</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9">
+        <v>2014</v>
+      </c>
+      <c r="H9">
         <v>2015</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8000</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>8000</v>
       </c>
-      <c r="J9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3476,28 +3939,31 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2012</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>2013</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>3000</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3000</v>
       </c>
-      <c r="J10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3505,28 +3971,34 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>2012</v>
       </c>
-      <c r="F11">
-        <v>2014</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
+        <v>2014</v>
+      </c>
+      <c r="I11">
         <v>1000000</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>225000</v>
       </c>
-      <c r="J11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3534,375 +4006,384 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>2012</v>
       </c>
-      <c r="F12">
-        <v>2014</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>2014</v>
+      </c>
+      <c r="I12">
         <v>399874</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>46168</v>
       </c>
-      <c r="J12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13">
+      <c r="F13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13">
         <v>2013</v>
       </c>
-      <c r="F13">
-        <v>2014</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>2014</v>
+      </c>
+      <c r="I13">
         <v>5000</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>5000</v>
       </c>
-      <c r="J13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14">
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14">
         <v>369643</v>
       </c>
-      <c r="J14" t="s">
-        <v>353</v>
-      </c>
-      <c r="K14">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>344</v>
+      </c>
+      <c r="M14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>337</v>
-      </c>
-      <c r="I15">
+      <c r="F15" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15">
         <v>140293</v>
       </c>
-      <c r="J15" t="s">
-        <v>353</v>
-      </c>
-      <c r="K15">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>344</v>
+      </c>
+      <c r="M15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
-      </c>
-      <c r="I16">
+        <v>329</v>
+      </c>
+      <c r="E16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="K16">
         <v>1309214</v>
       </c>
-      <c r="J16" t="s">
-        <v>353</v>
-      </c>
-      <c r="K16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>344</v>
+      </c>
+      <c r="M16">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17">
+        <v>465000</v>
+      </c>
+      <c r="L17" t="s">
         <v>344</v>
       </c>
-      <c r="C17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" t="s">
-        <v>343</v>
-      </c>
-      <c r="I17">
-        <v>465000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>353</v>
-      </c>
-      <c r="K17">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" t="s">
-        <v>347</v>
-      </c>
-      <c r="I18">
+        <v>336</v>
+      </c>
+      <c r="E18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F18" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18">
         <v>55000</v>
       </c>
-      <c r="J18" t="s">
-        <v>353</v>
-      </c>
-      <c r="K18">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D19" t="s">
-        <v>349</v>
-      </c>
-      <c r="I19">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19">
         <v>99323</v>
       </c>
-      <c r="J19" t="s">
-        <v>353</v>
-      </c>
-      <c r="K19">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s">
+        <v>344</v>
+      </c>
+      <c r="M19">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
-        <v>354</v>
-      </c>
-      <c r="I20">
+      <c r="F20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K20">
         <v>655639</v>
       </c>
-      <c r="J20" t="s">
-        <v>353</v>
-      </c>
-      <c r="K20">
+      <c r="L20" t="s">
+        <v>344</v>
+      </c>
+      <c r="M20">
         <v>2013</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I21">
+      <c r="F21" t="s">
+        <v>346</v>
+      </c>
+      <c r="K21">
         <v>87576</v>
       </c>
-      <c r="J21" t="s">
-        <v>353</v>
-      </c>
-      <c r="K21">
+      <c r="L21" t="s">
+        <v>344</v>
+      </c>
+      <c r="M21">
         <v>2013</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22">
+      <c r="F22" t="s">
+        <v>346</v>
+      </c>
+      <c r="K22">
         <v>299809</v>
       </c>
-      <c r="J22" t="s">
-        <v>353</v>
-      </c>
-      <c r="K22">
+      <c r="L22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M22">
         <v>2012</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23">
+      <c r="F23" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23">
         <v>374951</v>
       </c>
-      <c r="J23" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23">
+      <c r="L23" t="s">
+        <v>344</v>
+      </c>
+      <c r="M23">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>354</v>
-      </c>
-      <c r="I24">
+      <c r="F24" t="s">
+        <v>345</v>
+      </c>
+      <c r="K24">
         <v>1103179</v>
       </c>
-      <c r="J24" t="s">
-        <v>361</v>
-      </c>
-      <c r="K24">
+      <c r="L24" t="s">
+        <v>352</v>
+      </c>
+      <c r="M24">
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
-        <v>337</v>
-      </c>
-      <c r="I25">
+      <c r="F25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25">
         <v>495296</v>
       </c>
-      <c r="J25" t="s">
-        <v>361</v>
-      </c>
-      <c r="K25">
+      <c r="L25" t="s">
+        <v>352</v>
+      </c>
+      <c r="M25">
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
-        <v>364</v>
-      </c>
-      <c r="I26">
+      <c r="F26" t="s">
+        <v>355</v>
+      </c>
+      <c r="K26">
         <v>980969</v>
       </c>
-      <c r="J26" t="s">
-        <v>353</v>
-      </c>
-      <c r="K26">
+      <c r="L26" t="s">
+        <v>344</v>
+      </c>
+      <c r="M26">
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
-        <v>365</v>
-      </c>
-      <c r="I27">
+      <c r="F27" t="s">
+        <v>356</v>
+      </c>
+      <c r="K27">
         <v>923364</v>
       </c>
-      <c r="J27" t="s">
-        <v>353</v>
-      </c>
-      <c r="K27">
+      <c r="L27" t="s">
+        <v>344</v>
+      </c>
+      <c r="M27">
         <v>2013</v>
       </c>
     </row>
@@ -3919,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3946,16 +4427,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
-        <v>141</v>
+      <c r="D3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3971,669 +4466,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>78</v>
       </c>
       <c r="B1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2014</v>
       </c>
       <c r="B5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" t="s">
         <v>87</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2014</v>
-      </c>
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2014</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2013</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2012</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>2014</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2014</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2014</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2014</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2013</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>330</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>2013</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>2013</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>2012</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>2012</v>
-      </c>
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>2014</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>2014</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>2014</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>2014</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>2013</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>2013</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>2012</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>312</v>
-      </c>
-      <c r="D33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>2015</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>2015</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>2015</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>2014</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>320</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>2014</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>105</v>
+        <v>422</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E38">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:G38">
+    <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4647,15 +4681,589 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E32">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -4663,81 +5271,88 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+      <c r="C2" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-      <c r="B2">
-        <v>2012</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>2005</v>
+      </c>
+      <c r="C3" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3">
-        <v>2009</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2003</v>
-      </c>
-      <c r="B4">
-        <v>2005</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
       <c r="E4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1997</v>
-      </c>
-      <c r="B5">
-        <v>2001</v>
-      </c>
-      <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
+      <c r="F4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -4770,19 +5385,19 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4790,19 +5405,19 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E2">
         <v>2017</v>
       </c>
       <c r="F2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4810,19 +5425,19 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E3">
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4830,19 +5445,19 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <v>2017</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4850,19 +5465,19 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4870,19 +5485,19 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4890,19 +5505,19 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4910,19 +5525,19 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E8">
         <v>2015</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4930,19 +5545,19 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E9">
         <v>2015</v>
       </c>
       <c r="F9" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4950,19 +5565,19 @@
         <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E10">
         <v>2013</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4970,24 +5585,23 @@
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E11">
         <v>2015</v>
       </c>
       <c r="F11" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4996,7 +5610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -5016,7 +5630,7 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -5028,10 +5642,10 @@
         <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5042,16 +5656,16 @@
         <v>41929</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
@@ -5062,16 +5676,16 @@
         <v>41913</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5082,16 +5696,16 @@
         <v>41913</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5102,19 +5716,19 @@
         <v>41910</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5125,16 +5739,16 @@
         <v>41899</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5145,16 +5759,16 @@
         <v>41879</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5165,16 +5779,16 @@
         <v>41874</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5185,19 +5799,19 @@
         <v>41867</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5208,19 +5822,19 @@
         <v>41864</v>
       </c>
       <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
         <v>176</v>
       </c>
-      <c r="D10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>180</v>
-      </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5231,16 +5845,16 @@
         <v>41864</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5251,16 +5865,16 @@
         <v>41860</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5271,16 +5885,16 @@
         <v>41859</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5291,19 +5905,19 @@
         <v>41852</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5314,16 +5928,16 @@
         <v>41827</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5334,16 +5948,16 @@
         <v>41827</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1">
@@ -5354,16 +5968,16 @@
         <v>41826</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5374,16 +5988,16 @@
         <v>41823</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5394,16 +6008,16 @@
         <v>41823</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5414,16 +6028,16 @@
         <v>41818</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5434,19 +6048,19 @@
         <v>41815</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5457,16 +6071,16 @@
         <v>41814</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5477,16 +6091,16 @@
         <v>41813</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
@@ -5497,16 +6111,16 @@
         <v>41811</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
@@ -5517,16 +6131,16 @@
         <v>41766</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5537,16 +6151,16 @@
         <v>41743</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5557,16 +6171,16 @@
         <v>41701</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +6188,6 @@
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/wintersmith/data/cv.xlsx
+++ b/wintersmith/data/cv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1160" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="435">
   <si>
     <t>IDC</t>
   </si>
@@ -297,9 +297,6 @@
     <t>committee member</t>
   </si>
   <si>
-    <t>senior thesis</t>
-  </si>
-  <si>
     <t>student</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
   </si>
   <si>
     <t>Integrating Arduino with 3D-printed Tactile Picture Books</t>
-  </si>
-  <si>
-    <t>MS thesis</t>
   </si>
   <si>
     <t>Esther Vasiete Allas</t>
@@ -1368,6 +1362,30 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>Best Paper Nomination</t>
+  </si>
+  <si>
+    <t>Senior thesis</t>
+  </si>
+  <si>
+    <t>UX-RULE: A Javascript Framework for Dynamic and Static Accessibility Testing of Webpages</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference on Interaction Design and Children</t>
+  </si>
+  <si>
+    <t>Proceedings of the iConference</t>
+  </si>
+  <si>
+    <t>Proceedings of the International Conference on Tangible, Embedded, and Embodied Interaction</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM conference on Computer supported cooperative work</t>
+  </si>
+  <si>
+    <t>Proceedings of the ACM symposium on User interface software and technology</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1448,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="451">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1882,8 +1900,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1894,8 +1950,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="451">
+  <cellStyles count="489">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2161,6 +2220,25 @@
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2346,6 +2424,25 @@
     <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2677,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2713,19 +2810,19 @@
         <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
         <v>357</v>
-      </c>
-      <c r="I1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2733,19 +2830,19 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" t="s">
         <v>407</v>
-      </c>
-      <c r="D2" t="s">
-        <v>409</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H2" s="3">
         <v>0.26</v>
@@ -2756,10 +2853,10 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
         <v>404</v>
-      </c>
-      <c r="C3" t="s">
-        <v>406</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2768,10 +2865,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" s="3">
         <v>0.22</v>
@@ -2794,13 +2891,13 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H4" s="3">
         <v>0.23</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2808,25 +2905,25 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H5" s="3">
         <v>0.38</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2845,14 +2942,17 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>432</v>
+      </c>
       <c r="H6" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2860,19 +2960,22 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>431</v>
+      </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2891,14 +2994,17 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
+      <c r="F8" t="s">
+        <v>432</v>
+      </c>
       <c r="H8" s="3">
         <v>0.62</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2917,14 +3023,17 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" t="s">
+        <v>400</v>
+      </c>
       <c r="H9" s="3">
         <v>0.49</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2932,22 +3041,22 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2986,11 +3095,14 @@
       <c r="E12" t="s">
         <v>18</v>
       </c>
+      <c r="F12" t="s">
+        <v>434</v>
+      </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3010,10 +3122,10 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3032,14 +3144,17 @@
       <c r="E14" t="s">
         <v>10</v>
       </c>
+      <c r="F14" t="s">
+        <v>400</v>
+      </c>
       <c r="H14" s="3">
         <v>0.49</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3059,10 +3174,10 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3081,11 +3196,14 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
+      <c r="F16" t="s">
+        <v>433</v>
+      </c>
       <c r="I16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3104,14 +3222,17 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
+      <c r="F17" t="s">
+        <v>430</v>
+      </c>
       <c r="H17" s="3">
         <v>0.43</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3131,16 +3252,16 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H18" s="3">
         <v>0.48</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3163,7 +3284,7 @@
         <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3186,7 +3307,7 @@
         <v>41</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3194,10 +3315,10 @@
         <v>2013</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3205,17 +3326,20 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
+      <c r="F21" t="s">
+        <v>400</v>
+      </c>
       <c r="G21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H21" s="3">
         <v>0.2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="105">
@@ -3223,31 +3347,31 @@
         <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" t="s">
         <v>284</v>
-      </c>
-      <c r="D22" t="s">
-        <v>286</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H22" s="3">
         <v>0.22</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3255,22 +3379,22 @@
         <v>2013</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3278,28 +3402,28 @@
         <v>2012</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
         <v>291</v>
-      </c>
-      <c r="D24" t="s">
-        <v>293</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H24" s="3">
         <v>0.12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3334,52 +3458,52 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
         <v>382</v>
       </c>
-      <c r="B4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" t="s">
-        <v>384</v>
-      </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3395,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3414,13 +3538,13 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F1" t="s">
         <v>84</v>
@@ -3431,16 +3555,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3448,33 +3572,30 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>321</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3482,13 +3603,19 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3496,16 +3623,13 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3513,36 +3637,33 @@
         <v>2014</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3550,13 +3671,19 @@
         <v>2013</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3564,33 +3691,47 @@
         <v>2013</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3630,10 +3771,10 @@
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
         <v>76</v>
@@ -3648,19 +3789,19 @@
         <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3671,7 +3812,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
@@ -3692,7 +3833,7 @@
         <v>549999</v>
       </c>
       <c r="L2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3703,10 +3844,10 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -3727,7 +3868,7 @@
         <v>306516</v>
       </c>
       <c r="L3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30">
@@ -3738,10 +3879,10 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
@@ -3762,7 +3903,7 @@
         <v>319865</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3773,10 +3914,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -3797,7 +3938,7 @@
         <v>39999</v>
       </c>
       <c r="L5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3808,7 +3949,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E6" t="s">
         <v>60</v>
@@ -3829,7 +3970,7 @@
         <v>3000</v>
       </c>
       <c r="L6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3840,7 +3981,7 @@
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
@@ -3861,7 +4002,7 @@
         <v>8000</v>
       </c>
       <c r="L7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3872,10 +4013,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
@@ -3896,7 +4037,7 @@
         <v>202774</v>
       </c>
       <c r="L8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3904,16 +4045,16 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G9">
         <v>2014</v>
@@ -3928,7 +4069,7 @@
         <v>8000</v>
       </c>
       <c r="L9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3939,7 +4080,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -3960,7 +4101,7 @@
         <v>3000</v>
       </c>
       <c r="L10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3971,10 +4112,10 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -3995,7 +4136,7 @@
         <v>225000</v>
       </c>
       <c r="L11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4006,10 +4147,10 @@
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -4030,7 +4171,7 @@
         <v>46168</v>
       </c>
       <c r="L12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4038,16 +4179,16 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G13">
         <v>2013</v>
@@ -4062,7 +4203,7 @@
         <v>5000</v>
       </c>
       <c r="L13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4070,19 +4211,19 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K14">
         <v>369643</v>
       </c>
       <c r="L14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M14">
         <v>2014</v>
@@ -4093,19 +4234,19 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K15">
         <v>140293</v>
       </c>
       <c r="L15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M15">
         <v>2014</v>
@@ -4116,19 +4257,19 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
         <v>329</v>
       </c>
-      <c r="E16" t="s">
-        <v>331</v>
-      </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K16">
         <v>1309214</v>
       </c>
       <c r="L16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M16">
         <v>2014</v>
@@ -4139,19 +4280,19 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K17">
         <v>465000</v>
       </c>
       <c r="L17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M17">
         <v>2014</v>
@@ -4162,19 +4303,19 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" t="s">
         <v>336</v>
-      </c>
-      <c r="E18" t="s">
-        <v>337</v>
-      </c>
-      <c r="F18" t="s">
-        <v>338</v>
       </c>
       <c r="K18">
         <v>55000</v>
       </c>
       <c r="L18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M18">
         <v>2014</v>
@@ -4185,19 +4326,19 @@
         <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K19">
         <v>99323</v>
       </c>
       <c r="L19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M19">
         <v>2014</v>
@@ -4208,19 +4349,19 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K20">
         <v>655639</v>
       </c>
       <c r="L20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M20">
         <v>2013</v>
@@ -4231,19 +4372,19 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K21">
         <v>87576</v>
       </c>
       <c r="L21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M21">
         <v>2013</v>
@@ -4254,19 +4395,19 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K22">
         <v>299809</v>
       </c>
       <c r="L22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M22">
         <v>2012</v>
@@ -4277,19 +4418,19 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K23">
         <v>374951</v>
       </c>
       <c r="L23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M23">
         <v>2012</v>
@@ -4300,19 +4441,19 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K24">
         <v>1103179</v>
       </c>
       <c r="L24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M24">
         <v>2015</v>
@@ -4323,19 +4464,19 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K25">
         <v>495296</v>
       </c>
       <c r="L25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M25">
         <v>2015</v>
@@ -4346,19 +4487,19 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K26">
         <v>980969</v>
       </c>
       <c r="L26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M26">
         <v>2012</v>
@@ -4375,13 +4516,13 @@
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K27">
         <v>923364</v>
       </c>
       <c r="L27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M27">
         <v>2013</v>
@@ -4400,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4430,27 +4571,55 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2014</v>
+      <c r="A3" s="6">
+        <v>2015</v>
       </c>
       <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>137</v>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4486,10 +4655,10 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
         <v>84</v>
@@ -4501,7 +4670,7 @@
         <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4509,16 +4678,16 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
         <v>87</v>
@@ -4532,16 +4701,16 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -4555,16 +4724,16 @@
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -4578,16 +4747,16 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -4601,16 +4770,16 @@
         <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4624,16 +4793,16 @@
         <v>2013</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -4647,16 +4816,16 @@
         <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
@@ -4681,10 +4850,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4710,7 +4879,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4718,16 +4887,16 @@
         <v>2015</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>101</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4735,13 +4904,13 @@
         <v>2015</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>100</v>
@@ -4752,33 +4921,33 @@
         <v>2015</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4786,16 +4955,16 @@
         <v>2014</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4803,16 +4972,16 @@
         <v>2014</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>261</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4820,16 +4989,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4837,16 +5006,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4854,16 +5023,16 @@
         <v>2014</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4871,16 +5040,16 @@
         <v>2014</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4888,16 +5057,16 @@
         <v>2014</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4905,16 +5074,16 @@
         <v>2014</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>305</v>
+      <c r="E13" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4922,16 +5091,16 @@
         <v>2014</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>121</v>
+      <c r="E14" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4939,16 +5108,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4956,16 +5125,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4973,7 +5142,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>93</v>
@@ -4982,7 +5151,7 @@
         <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4990,16 +5159,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5007,16 +5176,16 @@
         <v>2014</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5024,16 +5193,16 @@
         <v>2014</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>311</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>310</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5041,33 +5210,33 @@
         <v>2014</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5075,16 +5244,16 @@
         <v>2013</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5092,16 +5261,16 @@
         <v>2013</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5109,16 +5278,16 @@
         <v>2013</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5126,16 +5295,16 @@
         <v>2013</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5143,16 +5312,16 @@
         <v>2013</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>307</v>
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5160,33 +5329,33 @@
         <v>2013</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>304</v>
+        <v>95</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>305</v>
+      <c r="E28" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>315</v>
+      <c r="E29" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5194,16 +5363,16 @@
         <v>2012</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5211,16 +5380,16 @@
         <v>2012</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5228,16 +5397,33 @@
         <v>2012</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>302</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5245,6 +5431,7 @@
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5271,19 +5458,19 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5294,19 +5481,19 @@
         <v>2009</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>425</v>
-      </c>
-      <c r="G2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5317,19 +5504,19 @@
         <v>2005</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F3" t="s">
         <v>423</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>425</v>
-      </c>
-      <c r="G3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5340,19 +5527,19 @@
         <v>2001</v>
       </c>
       <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
       <c r="F4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" t="s">
         <v>426</v>
-      </c>
-      <c r="G4" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -5385,19 +5572,19 @@
         <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5405,19 +5592,19 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>2017</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5425,19 +5612,19 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>2017</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5445,19 +5632,19 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>2017</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5465,19 +5652,19 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5485,19 +5672,19 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5505,19 +5692,19 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5525,19 +5712,19 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" t="s">
         <v>370</v>
-      </c>
-      <c r="D8" t="s">
-        <v>372</v>
       </c>
       <c r="E8">
         <v>2015</v>
       </c>
       <c r="F8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5545,19 +5732,19 @@
         <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E9">
         <v>2015</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5565,19 +5752,19 @@
         <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E10">
         <v>2013</v>
       </c>
       <c r="F10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5585,19 +5772,19 @@
         <v>2013</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11">
         <v>2015</v>
       </c>
       <c r="F11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5817,7 @@
         <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
@@ -5642,10 +5829,10 @@
         <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5656,16 +5843,16 @@
         <v>41929</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" t="s">
         <v>241</v>
-      </c>
-      <c r="G2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
@@ -5676,16 +5863,16 @@
         <v>41913</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5696,16 +5883,16 @@
         <v>41913</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5716,19 +5903,19 @@
         <v>41910</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" t="s">
         <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5739,16 +5926,16 @@
         <v>41899</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" t="s">
         <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5759,16 +5946,16 @@
         <v>41879</v>
       </c>
       <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
         <v>165</v>
       </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5779,16 +5966,16 @@
         <v>41874</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" t="s">
         <v>232</v>
-      </c>
-      <c r="G8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5799,19 +5986,19 @@
         <v>41867</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" t="s">
         <v>169</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5822,19 +6009,19 @@
         <v>41864</v>
       </c>
       <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5845,16 +6032,16 @@
         <v>41864</v>
       </c>
       <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" t="s">
         <v>213</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5865,16 +6052,16 @@
         <v>41860</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5885,16 +6072,16 @@
         <v>41859</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
         <v>257</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5905,19 +6092,19 @@
         <v>41852</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5928,16 +6115,16 @@
         <v>41827</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5948,16 +6135,16 @@
         <v>41827</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
         <v>188</v>
-      </c>
-      <c r="G16" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1">
@@ -5968,16 +6155,16 @@
         <v>41826</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5988,16 +6175,16 @@
         <v>41823</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6008,16 +6195,16 @@
         <v>41823</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6028,16 +6215,16 @@
         <v>41818</v>
       </c>
       <c r="C20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
         <v>191</v>
       </c>
-      <c r="D20" t="s">
-        <v>193</v>
-      </c>
       <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
         <v>192</v>
-      </c>
-      <c r="G20" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6048,19 +6235,19 @@
         <v>41815</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" t="s">
         <v>229</v>
-      </c>
-      <c r="F21" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6071,16 +6258,16 @@
         <v>41814</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6091,16 +6278,16 @@
         <v>41813</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
         <v>202</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
@@ -6111,16 +6298,16 @@
         <v>41811</v>
       </c>
       <c r="C24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
         <v>195</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>196</v>
-      </c>
-      <c r="E24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
@@ -6131,16 +6318,16 @@
         <v>41766</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
         <v>235</v>
-      </c>
-      <c r="G25" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6151,16 +6338,16 @@
         <v>41743</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
         <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6171,16 +6358,16 @@
         <v>41701</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
